--- a/Advance/Question Files/KnightMoves.xlsx
+++ b/Advance/Question Files/KnightMoves.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\giai-de\Advance\Question Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8860E89F-7DCD-4D9C-9A28-D0FA6F3DEDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088ED02-9282-4C56-B008-6F715B40F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAD9488B-68E5-4334-A030-8F486D5CE181}"/>
+    <workbookView xWindow="28680" yWindow="-6825" windowWidth="15990" windowHeight="24990" xr2:uid="{CAD9488B-68E5-4334-A030-8F486D5CE181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>a</t>
   </si>
@@ -87,22 +87,16 @@
     <t>H</t>
   </si>
   <si>
-    <t>input is always valid</t>
-  </si>
-  <si>
-    <t>5,4 =&gt; "AHCDEFACD" =&gt; 1,1</t>
-  </si>
-  <si>
     <t>"e4" =&gt; "AHCDEFACD" =&gt; "a1"</t>
   </si>
   <si>
-    <t>Follow up question:</t>
-  </si>
-  <si>
-    <t>5,4 =&gt; "AGG" =&gt; 8,8</t>
-  </si>
-  <si>
     <t>"e4" =&gt; "AGG" =&gt; "h8"</t>
+  </si>
+  <si>
+    <t>K là vị trí của quân mã</t>
+  </si>
+  <si>
+    <t>A, B, C, D, E, F, G, H là các cách di chuyển</t>
   </si>
 </sst>
 </file>
@@ -495,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F655E-AEBA-4513-855F-9AA2BCCFC06B}">
-  <dimension ref="G3:R12"/>
+  <dimension ref="G3:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +500,7 @@
     <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G4">
         <v>8</v>
       </c>
@@ -547,11 +541,8 @@
       <c r="P4">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>7</v>
       </c>
@@ -566,11 +557,8 @@
       <c r="P5">
         <v>7</v>
       </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>6</v>
       </c>
@@ -589,11 +577,8 @@
       <c r="P6">
         <v>6</v>
       </c>
-      <c r="R6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G7">
         <v>5</v>
       </c>
@@ -613,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>4</v>
       </c>
@@ -631,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>3</v>
       </c>
@@ -650,11 +635,8 @@
       <c r="P9">
         <v>3</v>
       </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>2</v>
       </c>
@@ -673,11 +655,8 @@
       <c r="P10">
         <v>2</v>
       </c>
-      <c r="R10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G11">
         <v>1</v>
       </c>
@@ -692,11 +671,8 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="7:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>0</v>
       </c>
@@ -720,6 +696,26 @@
       </c>
       <c r="O12" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
